--- a/Тестовое задание конвертер.xlsx
+++ b/Тестовое задание конвертер.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rail\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rail\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" tabRatio="679"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="679" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Чек-лист" sheetId="1" r:id="rId1"/>
@@ -263,14 +263,15 @@
     <t>Задание № 2</t>
   </si>
   <si>
+    <t>Проверить функционал конвертации исходной валюты доллара США до смены курса</t>
+  </si>
+  <si>
     <t>1. Получить максимально полную информацию от техподдержки. Включены ли push-уведомления у пользователей, включена ли передача мобильных данных, при каких шагах воспроизведения не приходят  push-уведомления, на каких устройства и ОС используют пользователи сообщившие о дефекте.
 2. Если проблема появляется не из-за ошибочных действий пользователей, то она прячется в беке. 
+Прочитать логи, скорее всего найти причину ошибку удасться именно там.
 Воспроизвести шаги и с помощью CharlesProxy посмотреть статус код-запроса, он должен быть 200, если статус код начинается с 4** или 5**, сообщить о проблеме разработчикам, ее характер зависит от статус кода запроса.
 Если статус код 200, но уведомления не приходят, посмотреть, куда уходит запрос, на нужный ли нам сервер, если нет-сообщить разработчикам.
 3. Если статус код и путь правильные, то смотреть код приложения, возможно проблема в нем и триггер вызывающий отправку уведомления не срабатывает, что скорее всего связано с тем, что были внесены изменения в код во время добавления нового функционала(обновления).</t>
-  </si>
-  <si>
-    <t>Проверить функционал конвертации исходной валюты доллара США до смены курса</t>
   </si>
 </sst>
 </file>
@@ -1211,6 +1212,90 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1249,90 +1334,6 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1622,7 +1623,7 @@
   </sheetPr>
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -1639,157 +1640,157 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="78"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
     </row>
     <row r="3" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="84"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="103"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="85">
+      <c r="C6" s="113">
         <v>45240</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="75"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="103"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="75"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="103"/>
     </row>
     <row r="8" spans="1:15" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="95"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="82"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="97"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="99" t="s">
+      <c r="D9" s="84"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="100"/>
+      <c r="G9" s="87"/>
     </row>
     <row r="10" spans="1:15" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="107"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="104" t="s">
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="105"/>
+      <c r="G10" s="92"/>
     </row>
     <row r="11" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="112" t="s">
+      <c r="D11" s="89"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="113"/>
+      <c r="G11" s="100"/>
     </row>
     <row r="12" spans="1:15" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="87"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="89" t="s">
+      <c r="D12" s="74"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="90"/>
+      <c r="G12" s="77"/>
     </row>
     <row r="13" spans="1:15" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="110"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="91" t="s">
+      <c r="D13" s="97"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="92"/>
+      <c r="G13" s="79"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
@@ -1965,6 +1966,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
@@ -1976,12 +1983,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2315,7 +2316,7 @@
         <v>40</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>27</v>
@@ -2616,8 +2617,8 @@
   </sheetPr>
   <dimension ref="B4:G28"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2629,7 +2630,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="114" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="114"/>
       <c r="D6" s="114"/>
